--- a/translation/xlsx/_meak_ep_01.xlsx
+++ b/translation/xlsx/_meak_ep_01.xlsx
@@ -90,7 +90,7 @@
     <t>Allegedly, she abducted five Hinamizawan residents (Oryou Sonozaki, Shion Sonozaki, Kiichirou Kimiyoshi, Rika Furude, and Satoko Houjou) and imprisoned them from June 19th through the 21st...</t>
   </si>
   <si>
-    <t xml:space="preserve">용의자는 6월 19일부터 21일까지 히나미자와 마을 주민 5명(소노자키 오료, 소노자키 미온, 키미요시 키이치로, 후루데 리카, 호죠 사토코)을 납치, 감금해 살해한 혐의가 있다. </t>
+    <t xml:space="preserve">용의자는 6월 19일부터 21일까지 히나미자와 마을 주민 5명(소노자키 오료, 소노자키 시온, 키미요시 키이치로, 후루데 리카, 호죠 사토코)을 납치, 감금해 살해한 혐의가 있다. </t>
   </si>
   <si>
     <t>용의자는 6월 19일부터 21일까지의 사이에 히나미자와무라 주민 5명(소노자키 오사키·소노자키 시논·쿠유키 이치로·코테 이화·호죠 사토코)을 납치, 감금해 살해한 혐의.</t>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -379,6 +379,9 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
@@ -599,7 +602,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="29.38"/>
     <col customWidth="1" hidden="1" min="3" max="3" width="7.63"/>
     <col customWidth="1" min="4" max="4" width="45.75"/>
     <col customWidth="1" hidden="1" min="5" max="5" width="46.25"/>
@@ -857,7 +861,7 @@
       <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1066,10 +1070,10 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3"/>
@@ -1078,26 +1082,26 @@
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="6"/>
@@ -1307,7 +1311,7 @@
       <c r="C28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -1664,18 +1668,18 @@
         <v>89</v>
       </c>
       <c r="F42" s="6"/>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="6"/>
@@ -1685,7 +1689,7 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="6"/>
@@ -1695,7 +1699,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E45" s="6"/>
@@ -1705,7 +1709,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="13" t="s">
         <v>91</v>
       </c>
       <c r="E46" s="6"/>
